--- a/resources/testData/Login.xlsx
+++ b/resources/testData/Login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="526" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="526"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>Element Identifier</t>
   </si>
   <si>
-    <t>Assert</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>SAMIK BANERJEE1</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -194,7 +194,7 @@
     <tableColumn id="3" name="Element Identifier"/>
     <tableColumn id="4" name="Element Identifier Value"/>
     <tableColumn id="5" name="Input Value"/>
-    <tableColumn id="6" name="Assert"/>
+    <tableColumn id="6" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,8 +488,8 @@
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -503,13 +503,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -517,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -528,13 +528,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -542,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>2000</v>
@@ -553,16 +553,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -570,10 +570,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -581,13 +581,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -595,10 +595,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -606,16 +606,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -623,16 +623,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -640,13 +640,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>2000</v>
@@ -665,13 +665,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>2000</v>
@@ -690,16 +690,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -707,13 +707,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -721,7 +721,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>2000</v>
@@ -740,7 +740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -765,44 +765,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
